--- a/SuiteFiles/SuiteFile.xlsx
+++ b/SuiteFiles/SuiteFile.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23929"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{568CF9A6-EBC7-48AB-90C5-FB06FDD6F519}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66A90F39-D5C5-43B0-A2CC-04FCB0139E0A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -387,7 +387,7 @@
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -409,7 +409,7 @@
         <v>4</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
@@ -417,7 +417,7 @@
         <v>5</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
